--- a/results/mp/deberta/corona/confidence/210/stop-words-desired-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-desired-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="120">
   <si>
     <t>anchor score</t>
   </si>
@@ -64,136 +64,136 @@
     <t>panic</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>benefits</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>benefits</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>relief</t>
   </si>
   <si>
     <t>join</t>
@@ -739,10 +739,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -871,7 +871,7 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -921,7 +921,7 @@
         <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -971,7 +971,7 @@
         <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1021,7 +1021,7 @@
         <v>83</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1071,7 +1071,7 @@
         <v>18</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K8">
         <v>0.9655172413793104</v>
@@ -1121,7 +1121,7 @@
         <v>54</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K9">
         <v>0.9555555555555556</v>
@@ -1171,7 +1171,7 @@
         <v>445</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K10">
         <v>0.9444444444444444</v>
@@ -1196,32 +1196,8 @@
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.09848484848484848</v>
-      </c>
-      <c r="C11">
-        <v>13</v>
-      </c>
-      <c r="D11">
-        <v>221</v>
-      </c>
-      <c r="E11">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F11">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>119</v>
-      </c>
       <c r="J11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K11">
         <v>0.9333333333333333</v>
@@ -1247,7 +1223,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K12">
         <v>0.9285714285714286</v>
@@ -1273,7 +1249,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K13">
         <v>0.9230769230769231</v>
@@ -1299,7 +1275,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K14">
         <v>0.9166666666666666</v>
@@ -1325,7 +1301,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K15">
         <v>0.8976377952755905</v>
@@ -1351,7 +1327,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K16">
         <v>0.8899082568807339</v>
@@ -1377,7 +1353,7 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K17">
         <v>0.8823529411764706</v>
@@ -1403,7 +1379,7 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K18">
         <v>0.8723404255319149</v>
@@ -1429,7 +1405,7 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K19">
         <v>0.8666666666666667</v>
@@ -1455,7 +1431,7 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K20">
         <v>0.8636363636363636</v>
@@ -1481,7 +1457,7 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K21">
         <v>0.8518518518518519</v>
@@ -1507,7 +1483,7 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K22">
         <v>0.85</v>
@@ -1533,7 +1509,7 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K23">
         <v>0.84</v>
@@ -1559,7 +1535,7 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K24">
         <v>0.8253968253968254</v>
@@ -1585,7 +1561,7 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K25">
         <v>0.8245614035087719</v>
@@ -1611,7 +1587,7 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K26">
         <v>0.8214285714285714</v>
@@ -1637,7 +1613,7 @@
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K27">
         <v>0.8214285714285714</v>
@@ -1663,7 +1639,7 @@
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K28">
         <v>0.8141025641025641</v>
@@ -1689,7 +1665,7 @@
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K29">
         <v>0.8076923076923077</v>
@@ -1715,7 +1691,7 @@
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K30">
         <v>0.797979797979798</v>
@@ -1741,7 +1717,7 @@
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K31">
         <v>0.7826086956521739</v>
@@ -1767,7 +1743,7 @@
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K32">
         <v>0.7727272727272727</v>
@@ -1793,7 +1769,7 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K33">
         <v>0.7450980392156863</v>
@@ -1819,16 +1795,16 @@
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>0.7412280701754386</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L34">
-        <v>169</v>
+        <v>66</v>
       </c>
       <c r="M34">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="N34">
         <v>0.9399999999999999</v>
@@ -1840,64 +1816,64 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>0.7333333333333333</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L35">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="M35">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="N35">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="O35">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K36">
-        <v>0.7111111111111111</v>
+        <v>0.7071129707112971</v>
       </c>
       <c r="L36">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="M36">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="N36">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K37">
         <v>0.6666666666666666</v>
@@ -1923,7 +1899,7 @@
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K38">
         <v>0.6482939632545932</v>
@@ -1949,7 +1925,7 @@
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K39">
         <v>0.6417910447761194</v>
@@ -1975,7 +1951,7 @@
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K40">
         <v>0.6363636363636364</v>
@@ -2001,7 +1977,7 @@
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K41">
         <v>0.6363636363636364</v>
@@ -2027,7 +2003,7 @@
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K42">
         <v>0.6363636363636364</v>
@@ -2053,28 +2029,28 @@
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="K43">
-        <v>0.636085626911315</v>
+        <v>0.632183908045977</v>
       </c>
       <c r="L43">
-        <v>208</v>
+        <v>55</v>
       </c>
       <c r="M43">
-        <v>221</v>
+        <v>57</v>
       </c>
       <c r="N43">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O43">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>119</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2082,25 +2058,25 @@
         <v>58</v>
       </c>
       <c r="K44">
-        <v>0.632183908045977</v>
+        <v>0.62</v>
       </c>
       <c r="L44">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="M44">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="N44">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2108,13 +2084,13 @@
         <v>59</v>
       </c>
       <c r="K45">
-        <v>0.62</v>
+        <v>0.611764705882353</v>
       </c>
       <c r="L45">
-        <v>31</v>
+        <v>208</v>
       </c>
       <c r="M45">
-        <v>31</v>
+        <v>208</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2126,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>19</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="10:17">
